--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2821271.235164051</v>
+        <v>2819019.155452843</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>32.64801326419305</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>68.74868616823451</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>141.9138526855533</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.4416819816004</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278511</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>51.62489145474429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>238.6591887249604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>115.7930329126639</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174122</v>
+        <v>349.2409687174147</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.9060413124615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.4093105446496</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>10.63412424768206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>90.69284018412962</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>94.05355358058023</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
-        <v>209.5058002623112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>133.605923711194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>98.00068573248018</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>143.1086912616889</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796247</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796247</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728743</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1213.328013853487</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>923.9108438165264</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>923.9108438165264</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>923.9108438165264</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1678.62132134232</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>402.9356658273865</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>233.9994828994796</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994796</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>233.9994828994796</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>233.9994828994796</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415546</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1563.551120410754</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1274.133950373793</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.144399475776</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>584.5841306576262</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.3078929297411</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>645.3078929297411</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>645.3078929297411</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>497.394799347348</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,28 +5264,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,22 +5294,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
         <v>322.7933138979686</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828446</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803618</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979687</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.263640121936</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4710609784063</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892232</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>416.6057892068301</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.3929232910542</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>782.4567403631473</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9259388694758286</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.42266963728767</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>55.74112246243955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>54.56191943763213</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
-        <v>16.20385512672598</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>15.00954930701832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.42036229045107</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.50678175652348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484895</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>4.480980351218022e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181811</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26442,7 +26442,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181815</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850893.1811041208</v>
+        <v>-850893.1811041216</v>
       </c>
       <c r="C6" t="n">
+        <v>477851.5646234712</v>
+      </c>
+      <c r="D6" t="n">
         <v>477851.564623471</v>
       </c>
-      <c r="D6" t="n">
-        <v>477851.5646234704</v>
-      </c>
       <c r="E6" t="n">
-        <v>226974.0329311744</v>
+        <v>226939.295005739</v>
       </c>
       <c r="F6" t="n">
-        <v>552386.4947385301</v>
+        <v>552351.7568130943</v>
       </c>
       <c r="G6" t="n">
-        <v>552386.4947385299</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="H6" t="n">
-        <v>552386.4947385298</v>
+        <v>552351.7568130945</v>
       </c>
       <c r="I6" t="n">
-        <v>552386.4947385298</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="J6" t="n">
-        <v>334855.2923412524</v>
+        <v>334820.5544158167</v>
       </c>
       <c r="K6" t="n">
-        <v>552386.4947385292</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="L6" t="n">
-        <v>552386.4947385301</v>
+        <v>552351.756813094</v>
       </c>
       <c r="M6" t="n">
-        <v>467331.4668030181</v>
+        <v>467296.728877582</v>
       </c>
       <c r="N6" t="n">
-        <v>552386.4947385298</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="O6" t="n">
-        <v>552386.4947385299</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="P6" t="n">
-        <v>552386.4947385298</v>
+        <v>552351.7568130941</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>349.2823568080688</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.1834665018128</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>110.2237906382747</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.79625667445322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624312</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>200.5127518690837</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>131.0719119535086</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>29.62801511026736</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>-1.4491216014594e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,25 +33029,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731345</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,7 +33518,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>301.9817606876396</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>469.7150632237159</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588043</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
